--- a/medicine/Psychotrope/ÁTVR/ÁTVR.xlsx
+++ b/medicine/Psychotrope/ÁTVR/ÁTVR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%81TVR</t>
+          <t>ÁTVR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ÁTVR, acronyme de Áfengis- og tóbaksverslun ríkisins, littéralement en français « Entreprise d'État d'Islande d'alcool et de tabac », appelée localement de manière informelle Ríkið, littéralement « l'État », est l'entreprise d'État détenant le monopole de la vente d'alcool et de tabac. Cette société ne revend cependant pas directement ces produits qui sont uniquement disponibles dans les boutiques de Vínbúð.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%81TVR</t>
+          <t>ÁTVR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(is) Site officiel de Vínbúð
  Portail de l’Islande   Portail des entreprises   Portail du tabac                   </t>
